--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>263037.0996591671</v>
+        <v>260068.4207753558</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7778725.99869257</v>
+        <v>7757679.400320136</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12628151.03332527</v>
+        <v>12628894.57162779</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>161.6648637996142</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>26.70096699592325</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>68.25327490405915</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>194.0800193939536</v>
+        <v>267.254907462107</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>235.7412200973001</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>278.3238312444825</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>88.02993795032305</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>96.3616331761031</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>28.558827064471</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>105.3540670460877</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>57.02146927220072</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.9112437681534</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,19 +1819,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>258.2317318494241</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>155.6928862740661</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>58.40943379163115</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2059,13 +2059,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>32.08011288840547</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>209.567519332071</v>
       </c>
       <c r="Y22" t="n">
-        <v>156.8459540917979</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2530,7 +2530,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486469</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.4425172951285</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534544</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>27.19292662790644</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.6268892744753</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744748</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793846</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869116</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.573252736587</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.8205811881658</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576155</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286616</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204484</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672367</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533782</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035504</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6424695860389</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.131179833317</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943731</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719576</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978414</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.1370322145319</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.5056841341164</v>
+        <v>119.669809763303</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.432263993071</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
-        <v>166.3085076069473</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>217.3722055786659</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643245</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397321</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.413209452495</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5998665049412</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.4748644679989</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H38" t="n">
         <v>283.5630920045443</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>384.7008942787112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.6708051668793</v>
+        <v>175.5610162827837</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>162.9758571994742</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>144.3445091190588</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>91.99531495326512</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>161.380877862109</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>136.292814776896</v>
+        <v>84.30736279711101</v>
       </c>
       <c r="I40" t="n">
-        <v>77.64340172935108</v>
+        <v>77.53361284525542</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.01957657602563</v>
+        <v>62.90978769192994</v>
       </c>
       <c r="S40" t="n">
-        <v>177.177313343401</v>
+        <v>177.0675244593054</v>
       </c>
       <c r="T40" t="n">
-        <v>213.3208194477039</v>
+        <v>213.2110305636082</v>
       </c>
       <c r="U40" t="n">
-        <v>282.0242765333625</v>
+        <v>281.9144876492668</v>
       </c>
       <c r="V40" t="n">
-        <v>247.9764683087701</v>
+        <v>247.8666794246744</v>
       </c>
       <c r="W40" t="n">
-        <v>282.3618233215331</v>
+        <v>282.2520344374374</v>
       </c>
       <c r="X40" t="n">
-        <v>221.5484803739792</v>
+        <v>221.4386914898836</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.4234783370368</v>
+        <v>214.3136894529412</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308904</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.70965412973847</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.08582897641217</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.70965412973847</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.085828976413</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972045</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1525.74665604171</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C2" t="n">
-        <v>1525.74665604171</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>1167.480957434959</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>781.6927048367149</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>370.7068000471074</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.178417284967</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.178417284967</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2339.115529941396</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>2339.115529941396</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017521</v>
+        <v>1965.649771680316</v>
       </c>
       <c r="Y2" t="n">
-        <v>1525.74665604171</v>
+        <v>1965.649771680316</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1773.985778385635</v>
+        <v>1538.731846067564</v>
       </c>
       <c r="C5" t="n">
-        <v>1405.023261445223</v>
+        <v>1169.769329127152</v>
       </c>
       <c r="D5" t="n">
-        <v>1046.757562838472</v>
+        <v>811.5036305204017</v>
       </c>
       <c r="E5" t="n">
-        <v>660.9693102402282</v>
+        <v>811.5036305204017</v>
       </c>
       <c r="F5" t="n">
-        <v>249.9834054506206</v>
+        <v>804.5581297711982</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646714</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X5" t="n">
-        <v>1773.985778385635</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y5" t="n">
-        <v>1773.985778385635</v>
+        <v>1538.731846067564</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>417.5768819848215</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>417.5768819848215</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>417.5768819848215</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1211.208450635683</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>842.2459336952718</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>483.9802350885213</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>483.9802350885213</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1597.808290699805</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6911546495019</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="C10" t="n">
-        <v>380.6911546495019</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="D10" t="n">
-        <v>380.6911546495019</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>380.6911546495019</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>669.8647649949339</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>669.8647649949339</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="U10" t="n">
-        <v>380.6911546495019</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="V10" t="n">
-        <v>380.6911546495019</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="W10" t="n">
-        <v>380.6911546495019</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="X10" t="n">
-        <v>380.6911546495019</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.6911546495019</v>
+        <v>394.4025473335336</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5118,10 +5118,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.6776738607302</v>
+        <v>300.0484256555984</v>
       </c>
       <c r="C13" t="n">
-        <v>245.6776738607301</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839437</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839437</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5209,40 +5209,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.79607059812</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518533</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="S13" t="n">
-        <v>1749.430944449955</v>
+        <v>1764.657581931534</v>
       </c>
       <c r="T13" t="n">
-        <v>1527.664329019482</v>
+        <v>1542.890966501059</v>
       </c>
       <c r="U13" t="n">
-        <v>1238.561462145125</v>
+        <v>1253.788099626703</v>
       </c>
       <c r="V13" t="n">
-        <v>983.8769739392383</v>
+        <v>999.1036114208162</v>
       </c>
       <c r="W13" t="n">
-        <v>694.4598039022776</v>
+        <v>709.6864413838555</v>
       </c>
       <c r="X13" t="n">
-        <v>466.4702530042603</v>
+        <v>481.6968904858381</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.6776738607302</v>
+        <v>481.6968904858381</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5261,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827576</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,7 +5309,7 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261303</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.6776738607301</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C16" t="n">
-        <v>245.6776738607301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839437</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839437</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,7 +5434,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
@@ -5446,40 +5446,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598119</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518532</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931532</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501058</v>
       </c>
       <c r="U16" t="n">
-        <v>1192.220376077348</v>
+        <v>1253.788099626702</v>
       </c>
       <c r="V16" t="n">
-        <v>937.5358878714605</v>
+        <v>999.1036114208152</v>
       </c>
       <c r="W16" t="n">
-        <v>648.1187178344999</v>
+        <v>999.1036114208152</v>
       </c>
       <c r="X16" t="n">
-        <v>648.1187178344999</v>
+        <v>771.1140605227979</v>
       </c>
       <c r="Y16" t="n">
-        <v>427.3261386909697</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,13 +5498,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089256</v>
@@ -5513,10 +5513,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L17" t="n">
         <v>1482.778354750621</v>
@@ -5525,16 +5525,16 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3008.107474639233</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3511.07994551857</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4224.435032965515</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,16 +5592,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
         <v>1715.000032008795</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,16 +5622,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>452.5901955154781</v>
+        <v>529.525731183237</v>
       </c>
       <c r="C19" t="n">
-        <v>452.5901955154781</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D19" t="n">
-        <v>302.4735561031423</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E19" t="n">
-        <v>154.5604625207491</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F19" t="n">
-        <v>154.5604625207491</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G19" t="n">
-        <v>154.5604625207491</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,19 +5674,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501057</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>1221.383945193968</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570255</v>
+        <v>931.966775157007</v>
       </c>
       <c r="X19" t="n">
-        <v>673.3827746590082</v>
+        <v>931.966775157007</v>
       </c>
       <c r="Y19" t="n">
-        <v>452.5901955154781</v>
+        <v>711.1741960134768</v>
       </c>
     </row>
     <row r="20">
@@ -5750,40 +5750,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>786.6724891157196</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
@@ -5835,7 +5835,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>561.2936040684043</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>561.2936040684043</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>411.1769646560686</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5908,13 +5908,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570258</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>901.3723255570258</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.942068898644</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,46 +5987,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>685.1208104866375</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1549.639626139992</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.189928969821</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3507.942201196468</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,16 +6096,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6148,13 +6148,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
@@ -6178,16 +6178,16 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208125</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>709.686441383852</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858346</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
         <v>277.2094992786341</v>
@@ -6212,7 +6212,7 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551631</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6227,16 +6227,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>270.9417306852385</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>270.9417306852385</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>270.9417306852385</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>123.0286371028454</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570255</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590082</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.5901955154782</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6470,13 +6470,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2016.310259422545</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2996.062531649191</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3876.027181978646</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,16 +6570,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839445</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6658,13 +6658,13 @@
         <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201817</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221643</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786342</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6704,13 +6704,13 @@
         <v>618.2595390972667</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364127</v>
+        <v>1482.778354750622</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420602</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6728,22 +6728,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6777,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390103</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193577</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320232</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
         <v>2125.961311426849</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839442</v>
@@ -6856,34 +6856,34 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927027</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O34" t="n">
         <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T34" t="n">
         <v>1559.196154437386</v>
@@ -6895,13 +6895,13 @@
         <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201817</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
         <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786342</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551397</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473708</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.557701729681</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.88034699416</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.0053400672753</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464046</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3125385470849</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9429223347668</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.462702840542</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.467264779579</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.752242696685</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O35" t="n">
-        <v>3652.861230428501</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P35" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028166</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570208</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.046105152479</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671632</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.43635826424</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865884</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752795</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K36" t="n">
-        <v>142.6450845291499</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L36" t="n">
-        <v>142.6450845291499</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M36" t="n">
-        <v>734.6634387812777</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.759402180614</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.635877180808</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.219395606884</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.750986625466</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C37" t="n">
-        <v>410.9257015602823</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="D37" t="n">
-        <v>260.9199600106699</v>
+        <v>555.8655840573317</v>
       </c>
       <c r="E37" t="n">
-        <v>260.9199600106699</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F37" t="n">
-        <v>260.9199600106699</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327808</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K37" t="n">
-        <v>432.6448948985994</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769886</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016703</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803665</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.78939181395</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645409</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194099</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2430.250342194099</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2262.26195067193</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2042.694066249035</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1753.728750426485</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1499.155160083321</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.848887909084</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>981.9702348737894</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.2885535929826</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.229508727735</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.266991787324</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.001293180573</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.213040582329</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2271357927214</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2440287091278</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3125385470848</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K38" t="n">
-        <v>892.189873607444</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L38" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M38" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N38" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O38" t="n">
-        <v>3652.861230428501</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P38" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3093.416110689545</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.829348791857</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.6894541647543</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>302.0892292003568</v>
       </c>
       <c r="L39" t="n">
-        <v>584.5489958917231</v>
+        <v>792.8215620441082</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.56735014385</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N39" t="n">
-        <v>1798.663313543187</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.539788543381</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>565.8493997364781</v>
+        <v>567.7486935666568</v>
       </c>
       <c r="C40" t="n">
-        <v>565.8493997364781</v>
+        <v>403.1266155873901</v>
       </c>
       <c r="D40" t="n">
-        <v>565.8493997364781</v>
+        <v>257.3240811236943</v>
       </c>
       <c r="E40" t="n">
-        <v>565.8493997364781</v>
+        <v>257.3240811236943</v>
       </c>
       <c r="F40" t="n">
-        <v>472.9248391776244</v>
+        <v>257.3240811236943</v>
       </c>
       <c r="G40" t="n">
-        <v>309.9138514381204</v>
+        <v>257.3240811236943</v>
       </c>
       <c r="H40" t="n">
-        <v>172.2443415624679</v>
+        <v>172.1651288033802</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>176.9183492024331</v>
+        <v>177.058725301323</v>
       </c>
       <c r="K40" t="n">
-        <v>440.6666394379041</v>
+        <v>440.9157065320487</v>
       </c>
       <c r="L40" t="n">
-        <v>832.5480207859457</v>
+        <v>832.905778875345</v>
       </c>
       <c r="M40" t="n">
-        <v>1255.897176095312</v>
+        <v>1256.363625179966</v>
       </c>
       <c r="N40" t="n">
-        <v>1674.712605151927</v>
+        <v>1675.287745231835</v>
       </c>
       <c r="O40" t="n">
-        <v>2045.854625431864</v>
+        <v>2046.538456507027</v>
       </c>
       <c r="P40" t="n">
-        <v>2340.504623532976</v>
+        <v>2341.297145603394</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.337320351318</v>
+        <v>2463.238533416991</v>
       </c>
       <c r="R40" t="n">
-        <v>2398.681182395736</v>
+        <v>2399.693293324132</v>
       </c>
       <c r="S40" t="n">
-        <v>2219.714199220584</v>
+        <v>2220.837208011702</v>
       </c>
       <c r="T40" t="n">
-        <v>2004.238624020883</v>
+        <v>2005.472530674724</v>
       </c>
       <c r="U40" t="n">
-        <v>1719.365617421527</v>
+        <v>1720.710421938092</v>
       </c>
       <c r="V40" t="n">
-        <v>1468.884336301557</v>
+        <v>1470.340038680845</v>
       </c>
       <c r="W40" t="n">
-        <v>1183.670373350514</v>
+        <v>1185.236973592524</v>
       </c>
       <c r="X40" t="n">
-        <v>959.8840295384136</v>
+        <v>961.5615276431467</v>
       </c>
       <c r="Y40" t="n">
-        <v>743.2946574808007</v>
+        <v>745.0830534482566</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>373.2380436180322</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319316</v>
+        <v>921.9831621891592</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656809</v>
+        <v>778.3953859427377</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150014</v>
+        <v>653.6271532118875</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942646</v>
+        <v>531.0624663109797</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>409.5209254945547</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>267.6551373506189</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705347</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296847</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604305</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873645</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501927</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504288</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2233.501188900155</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>198.8209117892279</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>689.5532446329793</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1281.571598885107</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531933</v>
+        <v>921.9831621891593</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>778.3953859427378</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>653.6271532118875</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>531.0624663109797</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>409.5209254945548</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>894.7529362604304</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873645</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501927</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504288</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900155</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1740.437300371966</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518752</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337914</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>189.7998007892644</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792191</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9173,19 +9173,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>183.0848540075436</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>170.1140909277306</v>
+        <v>288.0478149561023</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>67.53663776704161</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9875,19 +9875,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>315.1679217109319</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10118,16 +10118,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>201.9664098701136</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277281</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400234</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>49.74439522492628</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>49.74439522492668</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>110.2253518264271</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>73.85778156328854</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>27.98010635618882</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>62.89176707802872</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>86.34558112268962</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>220.0575304354225</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24175,7 +24175,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>16.14213605696619</v>
       </c>
       <c r="Y22" t="n">
-        <v>61.7386992602969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>16.14213605696598</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.14213605696628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>118.2281213950248</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24649,7 +24649,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696662</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>16.1421360569671</v>
+        <v>16.14213605696688</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>88.93215267004729</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>16.1421360569654</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>28.94566325490939</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3241737624732</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.3112591388353</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.344200907858</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.69478786031307</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.0709627069876</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>14.92019186741575</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>163.0856460835699</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>144.4542980031544</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>142.2727876315112</v>
+        <v>142.1629987474156</v>
       </c>
       <c r="F40" t="n">
-        <v>49.26455805460819</v>
+        <v>141.1500841237776</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>161.2710889780133</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>51.87566309568965</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.122657522500958e-12</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1073191.79161468</v>
+        <v>1073127.281487245</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1076263.299124459</v>
+        <v>1076365.259124081</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1091540.00886025</v>
+        <v>1092152.681875329</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1091540.00886025</v>
+        <v>1092152.681875329</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>348942.7521923206</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923206</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923207</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
-        <v>337519.5188539356</v>
+        <v>337519.5188539358</v>
       </c>
       <c r="F2" t="n">
-        <v>337519.5188539359</v>
+        <v>337519.5188539358</v>
       </c>
       <c r="G2" t="n">
         <v>337519.5188539356</v>
       </c>
       <c r="H2" t="n">
-        <v>337519.5188539357</v>
+        <v>337519.5188539356</v>
       </c>
       <c r="I2" t="n">
+        <v>337519.5188539358</v>
+      </c>
+      <c r="J2" t="n">
         <v>337519.5188539356</v>
       </c>
-      <c r="J2" t="n">
-        <v>337519.5188539358</v>
-      </c>
       <c r="K2" t="n">
-        <v>337519.5188539357</v>
+        <v>337519.5188539355</v>
       </c>
       <c r="L2" t="n">
         <v>337519.5188539358</v>
       </c>
       <c r="M2" t="n">
-        <v>342866.9633146328</v>
+        <v>342840.2652753876</v>
       </c>
       <c r="N2" t="n">
-        <v>343852.1638366377</v>
+        <v>343878.8618758828</v>
       </c>
       <c r="O2" t="n">
+        <v>348942.7521923206</v>
+      </c>
+      <c r="P2" t="n">
         <v>348942.7521923205</v>
-      </c>
-      <c r="P2" t="n">
-        <v>348942.7521923206</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25168002746068e-10</v>
+        <v>4.877520041191019e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>312959.146448555</v>
+        <v>312970.0160233569</v>
       </c>
       <c r="N3" t="n">
-        <v>3241.10890476944</v>
+        <v>3416.771119322885</v>
       </c>
       <c r="O3" t="n">
-        <v>22827.93839668405</v>
+        <v>16659.16697241355</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26424,40 +26424,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="F4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>21619.60799709184</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="H4" t="n">
-        <v>21619.60799709185</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709183</v>
-      </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709185</v>
       </c>
       <c r="M4" t="n">
-        <v>5156.962217675011</v>
+        <v>5069.915760662911</v>
       </c>
       <c r="N4" t="n">
-        <v>6490.070157725499</v>
+        <v>6475.275729222361</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975161</v>
+        <v>13327.39591958987</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975158</v>
+        <v>13327.39591958988</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26491,25 +26491,25 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>101255.7846008167</v>
+        <v>101289.0951212765</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-516090.801478063</v>
+        <v>-516090.8014780631</v>
       </c>
       <c r="C6" t="n">
-        <v>73877.07773648141</v>
+        <v>73877.07773648138</v>
       </c>
       <c r="D6" t="n">
-        <v>73877.07773648153</v>
+        <v>73877.07773648133</v>
       </c>
       <c r="E6" t="n">
-        <v>-507861.0213902766</v>
+        <v>-507928.2168805021</v>
       </c>
       <c r="F6" t="n">
-        <v>219516.3926031303</v>
+        <v>219449.1971129045</v>
       </c>
       <c r="G6" t="n">
-        <v>219516.3926031301</v>
+        <v>219449.197112904</v>
       </c>
       <c r="H6" t="n">
-        <v>219516.3926031302</v>
+        <v>219449.1971129043</v>
       </c>
       <c r="I6" t="n">
-        <v>219516.3926031301</v>
+        <v>219449.1971129045</v>
       </c>
       <c r="J6" t="n">
-        <v>43093.17341053739</v>
+        <v>43025.97792031141</v>
       </c>
       <c r="K6" t="n">
-        <v>219516.3926031302</v>
+        <v>219449.1971129041</v>
       </c>
       <c r="L6" t="n">
-        <v>219516.3926031299</v>
+        <v>219449.197112904</v>
       </c>
       <c r="M6" t="n">
-        <v>-76164.33397177015</v>
+        <v>-76165.60294773515</v>
       </c>
       <c r="N6" t="n">
-        <v>232865.200173326</v>
+        <v>232667.9323159644</v>
       </c>
       <c r="O6" t="n">
-        <v>210502.1900419694</v>
+        <v>215916.4447937859</v>
       </c>
       <c r="P6" t="n">
-        <v>233330.1284386536</v>
+        <v>232575.6117661993</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26774,10 +26774,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840959744</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.051386130961997</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="O2" t="n">
-        <v>20.12347247698171</v>
+        <v>20.82395871551694</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M3" t="n">
         <v>268.2643481230871</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>252.1193062211808</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>189.7473533617346</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>131.0703856053968</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>157.456380484978</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>219.7041506268414</v>
+        <v>146.529262558688</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>16.39642322652793</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>8.199167092108496</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>318.8461077913884</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>273.3694675023659</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>183.5867118855479</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>113.2305863060071</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.732907316589262e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="C40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="D40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="E40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="F40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="G40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="H40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="I40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="J40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="K40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="L40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="M40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="N40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="O40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="P40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="R40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="S40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="T40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="U40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="V40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="W40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="X40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.161175015057939</v>
+        <v>4.270963899153607</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203968</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32555,10 +32555,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752261</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026424</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353159</v>
@@ -33512,7 +33512,7 @@
         <v>609.6478166837927</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970236</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P33" t="n">
         <v>447.6103584002929</v>
@@ -33737,10 +33737,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>187.1630768341348</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
@@ -33749,13 +33749,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>571.4938338238233</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33965,7 +33965,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,22 +33974,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>348.1857632660254</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
-        <v>344.3187317059974</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34056,16 +34056,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M40" t="n">
         <v>383.8803574265022</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34077,7 +34077,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,22 +34211,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>420.7661933823238</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>243.8743315376124</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>742.1016362021759</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675438</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
@@ -35647,28 +35647,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014663</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35814,16 +35814,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.856946167543</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>433.8791588112632</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>507.3053774831311</v>
+        <v>625.2391015115028</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>404.7279243224421</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36595,19 +36595,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>867.4697571238434</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>600.7283960894853</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226397</v>
@@ -37008,7 +37008,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>337.1912865554007</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200605</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230595</v>
@@ -37081,7 +37081,7 @@
         <v>989.6487598248959</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509648</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193721</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597567</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609569</v>
@@ -37160,7 +37160,7 @@
         <v>478.3061046004594</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859627</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306627</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443197</v>
@@ -37239,7 +37239,7 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451105</v>
@@ -37318,7 +37318,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O35" t="n">
-        <v>739.5040280119348</v>
+        <v>741.0722806160991</v>
       </c>
       <c r="P35" t="n">
         <v>553.844392613483</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>49.32163785977581</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
@@ -37397,13 +37397,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>428.8975893793788</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.88971099475647</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483017</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.788393008474</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724388</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.994501805012</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447319</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772319</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885758</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
-        <v>524.1185202629891</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M38" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>210.3443242916665</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
-        <v>210.3443242916671</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.94109712571843</v>
+        <v>84.05088600981412</v>
       </c>
       <c r="K40" t="n">
-        <v>266.4124143792637</v>
+        <v>266.5222032633594</v>
       </c>
       <c r="L40" t="n">
-        <v>395.839779139436</v>
+        <v>395.9495680235316</v>
       </c>
       <c r="M40" t="n">
-        <v>427.6254094034007</v>
+        <v>427.7351982874964</v>
       </c>
       <c r="N40" t="n">
-        <v>423.045887935974</v>
+        <v>423.1556768200697</v>
       </c>
       <c r="O40" t="n">
-        <v>374.8909295756939</v>
+        <v>375.0007184597896</v>
       </c>
       <c r="P40" t="n">
-        <v>297.6262607081939</v>
+        <v>297.7360495922895</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.0633301195378</v>
+        <v>123.1731190036335</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>282.2118136024496</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030134</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>318.5600083078065</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>741.0722806160982</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>106.0328925632534</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030134</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>318.5600083078065</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
